--- a/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-0.5 - x</t>
-  </si>
-  <si>
-    <t>-0.7808768926451601</t>
+    <t>4.5 - x</t>
+  </si>
+  <si>
+    <t>-5.0</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.17981084380637158</t>
-  </si>
-  <si>
-    <t>-0.5 + x</t>
-  </si>
-  <si>
-    <t>-0.21912310735483986</t>
-  </si>
-  <si>
-    <t>0.2598940213925963</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>-4.5 + x</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 + 0.9945190072464489y</t>
-  </si>
-  <si>
-    <t>0.5691778519767898</t>
+    <t>-3.880149812734083 + 1.3857677902621726y</t>
+  </si>
+  <si>
+    <t>2.880149812734083</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.8998025943088924</t>
-  </si>
-  <si>
-    <t>0.2577106800527853</t>
-  </si>
-  <si>
-    <t>0.9593838857181683</t>
-  </si>
-  <si>
-    <t>-1 + 0.03532875819594472y</t>
-  </si>
-  <si>
-    <t>-0.9442573701508128</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>4.675999999999999 - 1.67y</t>
+  </si>
+  <si>
+    <t>-5.675999999999999</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.5752547170524925</t>
-  </si>
-  <si>
-    <t>0.22267447221471093</t>
-  </si>
-  <si>
-    <t>0.8989324520137797</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.28087689264516014</t>
-  </si>
-  <si>
-    <t>1.577825904324759</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.1960707102548431</t>
+    <t>-3.255319101123596</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.04475441939028002</t>
-  </si>
-  <si>
-    <t>0.7358350177318136</t>
+    <t>-1.3299999999999998</t>
+  </si>
+  <si>
+    <t>-6.31979400749064</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9646712418040553</v>
+        <v>2.67</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>4.5 - x</t>
-  </si>
-  <si>
-    <t>-5.0</t>
+    <t>2.8499999999999996 - x</t>
+  </si>
+  <si>
+    <t>-3.3499999999999996</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>-4.5 + x</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>-2.8499999999999996 + x</t>
+  </si>
+  <si>
+    <t>2.3499999999999996</t>
+  </si>
+  <si>
+    <t>0.09</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,40 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-3.880149812734083 + 1.3857677902621726y</t>
-  </si>
-  <si>
-    <t>2.880149812734083</t>
+    <t>-13.271929824561402 + 2.9824561403508776y</t>
+  </si>
+  <si>
+    <t>12.271929824561402</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.675999999999999 - 1.67y</t>
-  </si>
-  <si>
-    <t>-5.675999999999999</t>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-4.440892098500626e-16 + 1.1102230246251565e-16y</t>
+  </si>
+  <si>
+    <t>-0.9999999999999996</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1.9</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>2.8499999999999996</t>
+  </si>
+  <si>
+    <t>4.449999999999999</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-3.255319101123596</t>
+    <t>-3.4166666666666665</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.3299999999999998</t>
-  </si>
-  <si>
-    <t>-6.31979400749064</t>
+    <t>-1.0700000000000003</t>
+  </si>
+  <si>
+    <t>-16.894736842105267</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -752,7 +752,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.67</v>
+        <v>2.2800000000000002</v>
       </c>
     </row>
   </sheetData>
